--- a/medicine/Mort/Terrorisme_en_1989/Terrorisme_en_1989.xlsx
+++ b/medicine/Mort/Terrorisme_en_1989/Terrorisme_en_1989.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,27 +520,196 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-13 avril, Sri Lanka : un attentat des Tigres Tamouls sur un marché de Trincomalee tue cinquante-et-une personnes et fait une cinquantaine de blessés[1],[2].
-Mai
-16 mai, Liban : assassinat de Hassan Khaled, mufti de la communauté sunnite, dans un attentat à la voiture piégée qui fait entre 15 et 22 morts à Beyrouth[3].
-Juin
-Juillet
-6 juillet, Israël : un attentat-suicide dans un bus reliant Tel Aviv-Jaffa à Jérusalem fait seize morts et plusieurs blessés[4].
-13 juillet, Autriche : assassinat à Vienne d'Abdul Rahman Ghassemlou, secrétaire général du Parti démocratique du Kurdistan d’Iran (PDKI)[5].
-Août
-Septembre
-19 septembre, Niger : l'attentat contre le vol 772 d'UTA cause la mort de l'ensemble des passagers et personnels de bord de l'avion, faisant cent soixante-dix victimes[6].
-22 septembre, Royaume-Uni : un attentat de l'IRA provisoire contre une caserne de la musique de la Royal Navy dans le Kent fait dix morts[réf. souhaitée].
-Octobre
-Novembre
-27 novembre, Colombie : le cartel de Medellin tente d'assassiner César Gaviria, futur président de Colombie, en faisant exploser le vol 203 Avianca. Le bilan est de cent sept morts[7].
-Décembre
-6 décembre, Colombie : un attentat contre le siège du Département Administratif de Sécurité à Bogota fait quarante-cinq morts et plus de quatre cents blessés[8].
-21 décembre, Soudan : un avion de Médecins sans frontières est abattu au décollage par un missile. Les quatre personnes à bord de l'appareil sont tuées[9].</t>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 avril, Sri Lanka : un attentat des Tigres Tamouls sur un marché de Trincomalee tue cinquante-et-une personnes et fait une cinquantaine de blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16 mai, Liban : assassinat de Hassan Khaled, mufti de la communauté sunnite, dans un attentat à la voiture piégée qui fait entre 15 et 22 morts à Beyrouth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 juillet, Israël : un attentat-suicide dans un bus reliant Tel Aviv-Jaffa à Jérusalem fait seize morts et plusieurs blessés.
+13 juillet, Autriche : assassinat à Vienne d'Abdul Rahman Ghassemlou, secrétaire général du Parti démocratique du Kurdistan d’Iran (PDKI).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 septembre, Niger : l'attentat contre le vol 772 d'UTA cause la mort de l'ensemble des passagers et personnels de bord de l'avion, faisant cent soixante-dix victimes.
+22 septembre, Royaume-Uni : un attentat de l'IRA provisoire contre une caserne de la musique de la Royal Navy dans le Kent fait dix morts[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27 novembre, Colombie : le cartel de Medellin tente d'assassiner César Gaviria, futur président de Colombie, en faisant exploser le vol 203 Avianca. Le bilan est de cent sept morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1989</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6 décembre, Colombie : un attentat contre le siège du Département Administratif de Sécurité à Bogota fait quarante-cinq morts et plus de quatre cents blessés.
+21 décembre, Soudan : un avion de Médecins sans frontières est abattu au décollage par un missile. Les quatre personnes à bord de l'appareil sont tuées.</t>
         </is>
       </c>
     </row>
